--- a/FIR-405 ED Dashboard/FIR-405 ED Dashboard Config.xlsx
+++ b/FIR-405 ED Dashboard/FIR-405 ED Dashboard Config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Pending Orders" sheetId="8" r:id="rId11"/>
     <sheet name="Prefmaint Config" sheetId="12" r:id="rId12"/>
     <sheet name="NEDOCS OPS Job Config" sheetId="13" r:id="rId13"/>
+    <sheet name="v2.4.1 changelog" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="476">
   <si>
     <t>tg default</t>
   </si>
@@ -1569,6 +1570,168 @@
   </si>
   <si>
     <t>all types</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>97058 - FirstNet: ED Dashboard 2.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Package </t>
+  </si>
+  <si>
+    <t>100935 - Emergency Medicine: ED Dashboard 2.4.1</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>1-12743110461</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>With this enhancement, a New Notices component is available. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-12743110484</t>
+  </si>
+  <si>
+    <t>With this enhancement, a new Pending Events component is available. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-12743110497</t>
+  </si>
+  <si>
+    <t>With this enhancement, a new NEDOCS component detail window is available. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-12811234731</t>
+  </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>The ED Dashboard is not displayed correctly when using Internet Explorer 10. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-12939795740</t>
+  </si>
+  <si>
+    <t>The acuity label not does display correctly in the Acuity and Critical Care dashboard component. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13094542361</t>
+  </si>
+  <si>
+    <t>The NEDOCS operations job does not recognize tracking events for critical patient count. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13093276330</t>
+  </si>
+  <si>
+    <t>The Reason for Visit column is blank in the Acuity and Critical care component of the dashboard. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13134487636</t>
+  </si>
+  <si>
+    <t>This enhancement provides UI updates to the ED Dashboard. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13155125831</t>
+  </si>
+  <si>
+    <t>The ED Dashboard Notices component errorcheck method returns a failure when saving. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13167525861</t>
+  </si>
+  <si>
+    <t>The ED Volume Component takes a long time to load. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13225826251</t>
+  </si>
+  <si>
+    <t>The ED Dashboard Pending Admit longest boarding time does not include completed events. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13225826491</t>
+  </si>
+  <si>
+    <t>With this enhancement, you can open the patient's chart by clicking the patient's name from any details dialog box. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13225826515</t>
+  </si>
+  <si>
+    <t>With this enhancement, you can set the Pending Admit Bed Count at the tracking location preference level. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13225826570</t>
+  </si>
+  <si>
+    <t>With this enhancement, an Order Details tooltip is added to the Pending Orders dialog box. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-13237579981</t>
+  </si>
+  <si>
+    <t>A script error occurs when lang or CCL_Lang extends beyond en_us. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-000000092315</t>
+  </si>
+  <si>
+    <t>Calculations based on tracking events do not use the earliest date and time. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-000000092464</t>
+  </si>
+  <si>
+    <t>The NEDOCS dialog box displays incorrect values. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-000000097368</t>
+  </si>
+  <si>
+    <t>The ED Dashboard Pending Events component does not recognize base locations. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-000000097690</t>
+  </si>
+  <si>
+    <t>The Provider Check In Access preference is not recognized when the ED Dashboard is opened or refreshed. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-000000104220</t>
+  </si>
+  <si>
+    <t>The Pending Admit longest boarding time calculation is not filtering by tracking event. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>1-000000104221</t>
+  </si>
+  <si>
+    <t>Pending Admit does not recognize the tracking location bed count. Application Affected: FirstNet (FirstNet.exe)</t>
+  </si>
+  <si>
+    <t>Solution Change</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description of Issue</t>
+  </si>
+  <si>
+    <t>MINE,$USR_PERSONID$,$USR_PositionCd$,"","","\\\\mcfs12.nch.kids\\g02\\CERNER\\linux_pbuild_env\\winintel\\static_content\\fn_ed_dashboard","MP_DASH_FIRSTNET"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wiki.ucern.com/display/public/reference/Configure+ED+Real+Time+Dashboard#ConfigureEDRealTimeDashboard-ConfigureTrackingLocationPreferencesinPreferenceManager </t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1785,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1644,6 +1807,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,7 +1888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1727,6 +1902,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1757,7 +1938,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1766,73 +1947,8 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
+      <color rgb="FF57FBAD"/>
       <color rgb="FF339966"/>
     </mruColors>
   </colors>
@@ -1854,8 +1970,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525463</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1897,6 +2013,44 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54104</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="9906000"/>
+          <a:ext cx="6070729" cy="6032500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1972,7 +2126,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFEBE1"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2254,30 +2408,73 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>371</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="12" t="s">
         <v>79</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H53" t="s">
+        <v>341</v>
+      </c>
+      <c r="I53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>343</v>
+      </c>
+      <c r="I54" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2287,10 +2484,11 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Overview of the ED Real Time Dashboard Using FirstNet"/>
     <hyperlink ref="B3" r:id="rId2" display="Configuration"/>
+    <hyperlink ref="C3" r:id="rId3" location="ConfigureEDRealTimeDashboard-ConfigureTrackingLocationPreferencesinPreferenceManager "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2875,8 +3073,8 @@
   </sheetPr>
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -2941,12 +3139,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3325,12 +3523,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3443,74 +3641,74 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="23" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="23" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="23" t="s">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3615,12 +3813,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -3791,12 +3989,12 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -3903,12 +4101,12 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="16"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -4287,12 +4485,12 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="16"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -4476,7 +4674,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>347</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -4487,7 +4685,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="10" t="s">
         <v>341</v>
       </c>
@@ -4496,7 +4694,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>343</v>
       </c>
@@ -4519,8 +4717,8 @@
   </sheetPr>
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,6 +4842,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="B2:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="146.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B1:D21">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4656,7 +5119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5154,23 +5617,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -5274,12 +5737,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -5380,12 +5843,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -5486,12 +5949,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -5592,12 +6055,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -5809,20 +6272,20 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5999,12 +6462,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -6181,12 +6644,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">

--- a/FIR-405 ED Dashboard/FIR-405 ED Dashboard Config.xlsx
+++ b/FIR-405 ED Dashboard/FIR-405 ED Dashboard Config.xlsx
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="479">
   <si>
     <t>tg default</t>
   </si>
@@ -1732,13 +1732,22 @@
   </si>
   <si>
     <t xml:space="preserve">https://wiki.ucern.com/display/public/reference/Configure+ED+Real+Time+Dashboard#ConfigureEDRealTimeDashboard-ConfigureTrackingLocationPreferencesinPreferenceManager </t>
+  </si>
+  <si>
+    <t>New Prefs</t>
+  </si>
+  <si>
+    <t>fn_mpage_driver</t>
+  </si>
+  <si>
+    <t>MINE, "fn_ed_dashboard"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1784,6 +1793,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1823,7 +1847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1883,12 +1907,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1908,6 +2012,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,7 +2043,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1971,7 +2084,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>525463</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -2028,7 +2141,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>54104</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2408,16 +2521,17 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,7 +2543,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>371</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2437,15 +2551,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="17" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>424</v>
       </c>
@@ -2453,7 +2567,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>426</v>
       </c>
@@ -2464,7 +2578,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
         <v>343</v>
       </c>
@@ -2472,10 +2586,39 @@
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>474</v>
       </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H59" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H60" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="J60" s="32"/>
+      <c r="K60" s="33"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" s="35"/>
+      <c r="K61" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3139,12 +3282,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3523,12 +3666,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3641,12 +3784,12 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -3813,12 +3956,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -3989,12 +4132,12 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -4101,12 +4244,12 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -4485,12 +4628,12 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="21"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -4674,7 +4817,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>347</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -4685,7 +4828,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="10" t="s">
         <v>341</v>
       </c>
@@ -4694,7 +4837,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
         <v>343</v>
       </c>
@@ -5617,23 +5760,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -5737,12 +5880,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -5843,12 +5986,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -5949,12 +6092,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -6055,12 +6198,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -6272,20 +6415,20 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6462,12 +6605,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -6644,12 +6787,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">

--- a/FIR-405 ED Dashboard/FIR-405 ED Dashboard Config.xlsx
+++ b/FIR-405 ED Dashboard/FIR-405 ED Dashboard Config.xlsx
@@ -1992,7 +1992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2013,6 +2013,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2043,15 +2052,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2523,8 +2524,8 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2544,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>371</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2551,8 +2552,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -2593,32 +2594,32 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="I60" s="32" t="s">
+      <c r="I60" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="J60" s="32"/>
-      <c r="K60" s="33"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="34" t="s">
+      <c r="H61" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="I61" s="35" t="s">
+      <c r="I61" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="J61" s="35"/>
-      <c r="K61" s="36"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2626,7 +2627,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Overview of the ED Real Time Dashboard Using FirstNet"/>
-    <hyperlink ref="B3" r:id="rId2" display="Configuration"/>
+    <hyperlink ref="B3" r:id="rId2" location="ConfigureEDRealTimeDashboard-ConfigureTrackingLocationPreferencesinPreferenceManager"/>
     <hyperlink ref="C3" r:id="rId3" location="ConfigureEDRealTimeDashboard-ConfigureTrackingLocationPreferencesinPreferenceManager "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3282,12 +3283,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3666,12 +3667,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3784,12 +3785,12 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -3956,12 +3957,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -4132,12 +4133,12 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -4244,12 +4245,12 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="21"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -4628,12 +4629,12 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="21"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="30"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -4817,7 +4818,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>347</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -4828,7 +4829,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="10" t="s">
         <v>341</v>
       </c>
@@ -4837,7 +4838,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>343</v>
       </c>
@@ -5760,23 +5761,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -5880,12 +5881,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -5986,12 +5987,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -6092,12 +6093,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -6198,12 +6199,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -6415,20 +6416,20 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6605,12 +6606,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -6787,12 +6788,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
